--- a/方剂.xlsx
+++ b/方剂.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\练功_中医\中医考试\表格\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\练功_中医\中医考试\yikao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31AF09C-DB58-4A10-A67B-8E8D3F7232CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EA98B0-B3C0-4B5C-BE01-DC5DD0924B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="1140" windowWidth="14628" windowHeight="10104" xr2:uid="{9A5C7A49-C8BA-4113-A321-B4165B7CE42E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{9A5C7A49-C8BA-4113-A321-B4165B7CE42E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="总" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="180">
   <si>
     <t>细目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -376,10 +377,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>汗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>养阴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -465,6 +462,307 @@
   </si>
   <si>
     <t>积热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配伍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>润下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祛暑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香薷散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六一散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利湿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清暑益气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清暑益气汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气阴两伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴暑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>止汗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尿 泻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四逆汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温经散寒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当归四逆汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖肝煎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温中祛寒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理中丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小建中汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大建中汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴茱萸汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓急</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>止痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>止呕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脾胃虚寒
+失血
+胸痹
+霍乱
+惊
+沫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表里双解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葛根黄芩黄连汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大柴胡汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泄热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柴胡都和解少阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防风通圣散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泄热 通便</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都解表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扶正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>败毒散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参苏饮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒湿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银翘散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑菊饮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻杏石甘汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清热解毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连翘如何炒梗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温病初起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肺 喘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柴葛解肌汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都益气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻黄汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂枝汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无汗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小青龙汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大青龙汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郁热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九味羌活汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>止嗽散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻黄6两</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿 热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,7 +770,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -482,13 +780,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="2" tint="-9.9978637043366805E-2"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -516,7 +807,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -527,9 +818,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -914,741 +1202,1099 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA34B45-D8E1-47B8-A07B-12408E326A12}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.9140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="1"/>
-    <col min="7" max="7" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="1"/>
-    <col min="9" max="9" width="10" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.08203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="1"/>
+    <col min="8" max="8" width="10" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.08203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A2" s="4">
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="4">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="D15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="1">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="4">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="4">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="4">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="4">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="4">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="4">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="4">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="4">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="4">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="4">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="4">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A19" s="4">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A20" s="4">
-        <v>17</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A21" s="4">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A22" s="4">
-        <v>17</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A23" s="4">
-        <v>17</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A24" s="4">
-        <v>17</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="1">
-        <v>3</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A25" s="4">
-        <v>17</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="1">
-        <v>3</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>64</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A26" s="4">
-        <v>17</v>
+      <c r="A26" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="1">
-        <v>3</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A27" s="4">
-        <v>17</v>
-      </c>
       <c r="B27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="1">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="1">
+      <c r="C28" s="1">
         <v>8</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A28" s="4">
-        <v>17</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="1">
+      <c r="C29" s="1">
         <v>8</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A29" s="4">
-        <v>17</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="1">
+      <c r="C30" s="1">
         <v>8</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" s="1" t="s">
+      <c r="D30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A30" s="4">
-        <v>17</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="J30" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="1">
+      <c r="C31" s="1">
         <v>8</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A31" s="4">
-        <v>17</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="1">
-        <v>8</v>
+      <c r="D31" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="1" t="s">
         <v>49</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A32" s="4">
-        <v>17</v>
+      <c r="A32" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="1">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="1">
+      <c r="C33" s="1">
         <v>8</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H32" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" s="4">
-        <v>17</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="H33" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="1">
+      <c r="C34" s="1">
         <v>8</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="G34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" s="4">
-        <v>17</v>
-      </c>
-      <c r="B34" s="1" t="s">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="1">
+        <v>4</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="1">
+        <v>4</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" s="1">
+        <v>4</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C55" s="1">
+        <v>4</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="1">
-        <v>8</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>102</v>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" s="1">
+        <v>4</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" s="1">
+        <v>4</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="1">
+        <v>6</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C59" s="1">
+        <v>6</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C60" s="1">
+        <v>6</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C61" s="1">
+        <v>6</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" s="1">
+        <v>6</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" s="1">
+        <v>6</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1656,4 +2302,188 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348F61AE-75CA-4DF9-BD6B-72FD2B8EF7E7}">
+  <dimension ref="A2:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="H13:M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="1" customWidth="1"/>
+    <col min="3" max="12" width="4.75" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="1">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="1">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/方剂.xlsx
+++ b/方剂.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\练功_中医\中医考试\yikao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EA98B0-B3C0-4B5C-BE01-DC5DD0924B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41405DBA-22D3-4489-99FC-C92914BCCE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{9A5C7A49-C8BA-4113-A321-B4165B7CE42E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="1" xr2:uid="{9A5C7A49-C8BA-4113-A321-B4165B7CE42E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="总" sheetId="2" r:id="rId2"/>
+    <sheet name="方剂" sheetId="1" r:id="rId1"/>
+    <sheet name="方剂 总" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="267">
   <si>
     <t>细目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -466,10 +466,6 @@
   </si>
   <si>
     <t>配伍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>润下</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -758,11 +754,365 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>温经</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温中</t>
+    <t>驱虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌梅丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健脾宝岛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祛痰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六邪无火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喊35 热情胸 疯半天 枣瓜 十2担</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒 清胸 风 燥 湿 胆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治燥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾阴雨夜卖百合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增 玉液麦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Susan桑心选清酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏散桑杏宣清救</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻宣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滋阴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开窍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温和保子宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合宝紫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安神枣天珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情歌皇打通宫里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清 葛黄 大 攻里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小建中吴茱萸 四逆归逆暖肝经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61如暑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四校童鞋好菜拌蟹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逍痛泻蒿柴半泻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>母羊尾鲜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牡阳韦仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祛湿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小3散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传销挣钱 大小婚外情 镇内嚼大麻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>川 消 牵正 大秦 小活 角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>止血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 活学5不问 生肖 灵龟与桃符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活血 补5 温 逍 桂苓 淤 复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石灰止几棵黄花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">十灰 蓟 咳 槐 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破财行乞黑白剧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朴柴行气鞠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选定江苏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋 降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻桂九只大小龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商人妈拾柴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑银麻石柴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>败毒参苏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐白石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚轻盈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角清营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脸谱隔毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连普膈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好鳖需遛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒿 虚 六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙请少女吃白头蟹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清 芍 赤 泻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脏气虚应解毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄皮骑熊找麻吉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脾 气 胸 枣 济</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>238妙人镇 当年赶路印脸谱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁正 当拈赶路茵连朴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 0 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苓 苓 己芪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品味香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肝真无皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>术甘真武脾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平胃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独枪007必带香味</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羌 苓 苓 芪 萆 胃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固涩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表汗肺肠带精
+冲 经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飙汗非常带劲
+真神仙 牡蛎螵蛸黄虫精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四君苓术不生风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大六左一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1205,8 +1555,9 @@
   <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G64" sqref="G64"/>
+      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1588,7 +1939,7 @@
         <v>62</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1868,282 +2219,282 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="H36" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C41" s="1">
         <v>2</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C42" s="1">
         <v>2</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C43" s="1">
         <v>4</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C44" s="1">
         <v>4</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C45" s="1">
         <v>4</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="104.4" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C46" s="1">
         <v>4</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="J48" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="J49" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="I50" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C52" s="1">
         <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C53" s="1">
         <v>2</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C54" s="1">
         <v>4</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G54" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K54" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C55" s="1">
         <v>4</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>51</v>
@@ -2151,150 +2502,150 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C56" s="1">
         <v>4</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="G56" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C57" s="1">
         <v>4</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C58" s="1">
         <v>6</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C59" s="1">
         <v>6</v>
       </c>
       <c r="D59" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C60" s="1">
         <v>6</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C61" s="1">
         <v>6</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C62" s="1">
         <v>6</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C63" s="1">
         <v>6</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2306,184 +2657,756 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348F61AE-75CA-4DF9-BD6B-72FD2B8EF7E7}">
-  <dimension ref="A2:L7"/>
+  <dimension ref="A2:G66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="H13:M25"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="1" customWidth="1"/>
-    <col min="3" max="12" width="4.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.08203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.75" style="1" customWidth="1"/>
     <col min="13" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="E4" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="1">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B21" s="1">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B22" s="1">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E24" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B26" s="1">
+        <v>8</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28" s="1">
+        <v>8</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B30" s="1">
+        <v>9</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B32" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B33" s="1">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="1">
+        <v>6</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B34" s="1">
+        <v>9</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="1">
+        <v>12</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="1">
+        <v>12</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" s="1">
         <v>4</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E38" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="1">
+        <v>12</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="1">
+        <v>6</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B41" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B42" s="1">
+        <v>13</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D42" s="1">
+        <v>8</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B43" s="1">
+        <v>13</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D43" s="1">
+        <v>5</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="1">
+        <v>17</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="1">
+        <v>17</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="1">
+        <v>17</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="1">
+        <v>17</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="1">
+        <v>17</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="1">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E49" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="1">
+        <v>17</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="1">
+        <v>8</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B52" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B53" s="1">
+        <v>17</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="1">
         <v>5</v>
       </c>
-      <c r="F2" s="1">
+      <c r="E53" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B54" s="1">
+        <v>17</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B55" s="1">
+        <v>17</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B56" s="1">
+        <v>17</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D56" s="1">
+        <v>4</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B57" s="1">
+        <v>17</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D57" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B58" s="1">
+        <v>17</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D58" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" s="1">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B60" s="1">
+        <v>19</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B61" s="1">
+        <v>19</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" s="1">
         <v>2</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="E61" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B62" s="1">
+        <v>19</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="1">
+        <v>3</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B63" s="1">
+        <v>19</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="1">
+        <v>3</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B64" s="1">
+        <v>19</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B65" s="1">
+        <v>19</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D65" s="1">
+        <v>2</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B66" s="1">
+        <v>19</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D66" s="1">
         <v>7</v>
       </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="1">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="1">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="1">
-        <v>3</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="1">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="1">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F7" s="1">
-        <v>4</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="1">
-        <v>6</v>
+      <c r="E66" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>